--- a/Documentations/ZEBRA DB Schema.xlsx
+++ b/Documentations/ZEBRA DB Schema.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t>속성명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +50,238 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품바코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LONGTEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스캔횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 바코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰작성날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남은 리뷰 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 연락처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enterprise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스워드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZEBRA Data Base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scanCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviewText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>starPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 별점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 평균 별점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>starPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>point</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,7 +290,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Member</t>
+    <t>memberUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastReviewDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviewCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barcode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -66,251 +314,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT(0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품바코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>barcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LONGTEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인덱스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Review</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스캔횟수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 포인트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 등급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 바코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(45)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰작성날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastReviewDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 횟수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reviewCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남은 리뷰 횟수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalReivewCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 연락처</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phoneNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enterprise</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>companyName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(45)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패스워드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제조사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 횟수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>barcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZEBRA Data Base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scanCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>companyName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reviewText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>starPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 별점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 평균 별점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>starPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
+    <t>totalReviewCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,6 +636,45 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -640,45 +683,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -984,7 +988,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -995,13 +999,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
+      <c r="A1" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1021,369 +1025,369 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
-        <v>10</v>
+      <c r="A3" s="40" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="41"/>
+      <c r="B5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="41"/>
+      <c r="B6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="41"/>
+      <c r="B7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="41"/>
+      <c r="B8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="41"/>
+      <c r="B9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="41"/>
+      <c r="B10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="41"/>
+      <c r="B11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="41"/>
+      <c r="B12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="43"/>
+      <c r="B14" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="44"/>
+      <c r="B15" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="35"/>
+      <c r="B17" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="25"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="35"/>
+      <c r="B18" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="25"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="35"/>
+      <c r="B19" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="25"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="35"/>
+      <c r="B20" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="25"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="35"/>
+      <c r="B21" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="25"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="35"/>
+      <c r="B22" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="28"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="35"/>
+      <c r="B23" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="36"/>
+      <c r="B24" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
-      <c r="B6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
-      <c r="B7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="42"/>
-      <c r="B8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="42"/>
-      <c r="B9" s="11" t="s">
+      <c r="C24" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="24"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="42"/>
-      <c r="B10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
-      <c r="B11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="42"/>
-      <c r="B12" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="44"/>
-      <c r="B14" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="45"/>
-      <c r="B15" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="18"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="22" t="s">
+      <c r="D25" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="25"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
-      <c r="B18" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="25"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="25"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
-      <c r="B20" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="25"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="36"/>
-      <c r="B21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="25"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
-      <c r="B22" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="28"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="36"/>
-      <c r="B23" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="24"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
-      <c r="B24" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="24"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E25" s="30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
-      <c r="B26" s="47" t="s">
+      <c r="A26" s="46"/>
+      <c r="B26" s="33" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E26" s="31"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="33"/>
-      <c r="B27" s="47" t="s">
-        <v>15</v>
+      <c r="A27" s="46"/>
+      <c r="B27" s="33" t="s">
+        <v>13</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="E27" s="31"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="33"/>
-      <c r="B28" s="47" t="s">
-        <v>27</v>
+      <c r="A28" s="46"/>
+      <c r="B28" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E28" s="31"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E29" s="4"/>
     </row>
